--- a/test/functional-tests/resources/definitionsFiles/fe-automation-definition-v01.xlsx
+++ b/test/functional-tests/resources/definitionsFiles/fe-automation-definition-v01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/Definition Files/ui-toolkit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrzejfolga/src/ccd/temp/ccd-case-management-web/test/functional-tests/resources/definitionsFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9F04D2-3557-714A-A0FE-A5A929551C3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,18 +32,20 @@
     <sheet name="AuthorisationCaseEvent" sheetId="17" r:id="rId18"/>
     <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="417">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1382,16 +1383,22 @@
   <si>
     <t>http://localhost:4452/callback/jurisdictions/AUTOTEST1/case-types/AllDataTypes2/documents</t>
   </si>
+  <si>
+    <t>Collection Field</t>
+  </si>
+  <si>
+    <t>Marrital Status Field</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1580,6 +1587,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1607,7 +1620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1673,13 +1686,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1761,11 +1787,15 @@
     <xf numFmtId="49" fontId="30" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="30" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="31" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2922,7 +2952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3106,11 +3136,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3202,17 +3232,17 @@
       <c r="A5" s="29">
         <v>42736</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="19" t="s">
-        <v>281</v>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73" t="s">
+        <v>405</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="28">
+        <v>69</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="71">
         <v>1</v>
       </c>
     </row>
@@ -3220,17 +3250,17 @@
       <c r="A6" s="29">
         <v>42736</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="71">
         <v>1</v>
       </c>
     </row>
@@ -3238,17 +3268,17 @@
       <c r="A7" s="29">
         <v>42736</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="71">
         <v>1</v>
       </c>
     </row>
@@ -3256,17 +3286,17 @@
       <c r="A8" s="29">
         <v>42736</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="B8" s="72"/>
+      <c r="C8" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="71">
         <v>1</v>
       </c>
     </row>
@@ -3274,17 +3304,17 @@
       <c r="A9" s="29">
         <v>42736</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="B9" s="72"/>
+      <c r="C9" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="71">
         <v>1</v>
       </c>
     </row>
@@ -3292,19 +3322,307 @@
       <c r="A10" s="29">
         <v>42736</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F22" s="28">
         <v>1</v>
       </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -3316,7 +3634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3577,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3787,7 +4105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4049,7 +4367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4294,10 +4612,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{15AC9505-46D2-B140-92E4-4D254E4D40AD}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4308,7 +4626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4504,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
@@ -5465,7 +5783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5581,7 +5899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
@@ -5979,7 +6297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6357,10 +6675,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6671,7 +6989,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{D98A3995-6D9A-4641-B079-970CFB67200E}"/>
+    <hyperlink ref="G4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6682,11 +7000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7047,7 +7365,7 @@
         <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
@@ -14234,7 +14552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -15162,7 +15480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -15493,10 +15811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -16309,7 +16627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16662,10 +16980,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -17359,10 +17677,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F5" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
